--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\NB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE4E95-2B4D-4B1D-A8FC-68706D8E22DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5CAF39-32FC-4490-BC1F-4A75865B2EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="178">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1043,6 +1043,9 @@
   </si>
   <si>
     <t>Power Plant - Fuel FUEL_BIOMASS</t>
+  </si>
+  <si>
+    <t>asfas</t>
   </si>
 </sst>
 </file>
@@ -3684,7 +3687,7 @@
   <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,14 +3988,14 @@
       <c r="K16" s="31"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="19" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="106" t="s">
         <v>168</v>
       </c>
       <c r="D19" s="106"/>
       <c r="E19" s="106"/>
     </row>
-    <row r="20" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="24" t="s">
         <v>169</v>
       </c>
@@ -4001,7 +4004,7 @@
       </c>
       <c r="E20" s="114"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" s="104" t="s">
         <v>150</v>
       </c>
@@ -4009,8 +4012,11 @@
         <v>166</v>
       </c>
       <c r="E21" s="117"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" s="101" t="s">
         <v>156</v>
       </c>
@@ -4019,7 +4025,7 @@
       </c>
       <c r="E22" s="115"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" s="100" t="s">
         <v>154</v>
       </c>
@@ -4028,7 +4034,7 @@
       </c>
       <c r="E23" s="116"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="101" t="s">
         <v>153</v>
       </c>
@@ -4037,7 +4043,7 @@
       </c>
       <c r="E24" s="115"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" s="100" t="s">
         <v>152</v>
       </c>
@@ -4046,7 +4052,7 @@
       </c>
       <c r="E25" s="116"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="101" t="s">
         <v>159</v>
       </c>
@@ -4055,7 +4061,7 @@
       </c>
       <c r="E26" s="115"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="100" t="s">
         <v>155</v>
       </c>
@@ -4064,7 +4070,7 @@
       </c>
       <c r="E27" s="116"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="101" t="s">
         <v>151</v>
       </c>
@@ -4073,7 +4079,7 @@
       </c>
       <c r="E28" s="115"/>
     </row>
-    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="102" t="s">
         <v>157</v>
       </c>

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\NB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Maciek\Uczelnia\praca\przedmioty\Integrated Energy Resource Planning\2025_2026\winter\ELAND_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412FE23D-1C9B-4E63-B84B-DF61EB21B7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D1B0D5-4329-446D-B495-DE0BE30CF656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -512,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1022,30 +1033,6 @@
   </si>
   <si>
     <t>Set</t>
-  </si>
-  <si>
-    <t>IMP_BIOMASS</t>
-  </si>
-  <si>
-    <t>Import of Biomass</t>
-  </si>
-  <si>
-    <t>FUEL_BIOMASS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>EX_PP_BIOMASS</t>
-  </si>
-  <si>
-    <t>Power Plant - Biomass</t>
-  </si>
-  <si>
-    <t>Power Plant - Fuel FUEL_BIOMASS</t>
-  </si>
-  <si>
-    <t>asfas</t>
   </si>
 </sst>
 </file>
@@ -1926,6 +1913,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1934,15 +1930,6 @@
     </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2081,7 +2068,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1989584" cy="350352"/>
@@ -2292,7 +2279,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3601692" cy="350352"/>
@@ -3086,21 +3073,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
@@ -3115,10 +3102,10 @@
       <c r="L2" s="105"/>
       <c r="M2" s="105"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -3126,7 +3113,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -3161,7 +3148,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F6">
         <v>1</v>
       </c>
@@ -3187,7 +3174,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>84</v>
       </c>
@@ -3195,7 +3182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>86</v>
       </c>
@@ -3227,7 +3214,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -3235,7 +3222,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>89</v>
       </c>
@@ -3267,7 +3254,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>95</v>
       </c>
@@ -3290,7 +3277,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>98</v>
       </c>
@@ -3322,7 +3309,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>102</v>
       </c>
@@ -3343,9 +3330,9 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>135</v>
       </c>
@@ -3360,11 +3347,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495D73C4-1CB8-4502-8C15-49A7C0384D59}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3373,29 +3360,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L21"/>
+  <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3408,8 +3395,8 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -3422,7 +3409,7 @@
       <c r="K4" s="36"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29"/>
       <c r="C5" s="54" t="s">
         <v>1</v>
@@ -3437,7 +3424,7 @@
       <c r="K5" s="56"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29"/>
       <c r="C6" s="57" t="s">
         <v>137</v>
@@ -3468,7 +3455,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="29"/>
       <c r="C7" s="59" t="s">
         <v>9</v>
@@ -3499,7 +3486,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29"/>
       <c r="C8" s="47" t="s">
         <v>15</v>
@@ -3522,160 +3509,137 @@
       <c r="K8" s="48"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
+      <c r="H9" s="23"/>
+      <c r="I9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="48"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="50"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="29"/>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="23" t="s">
+      <c r="D10" s="62"/>
+      <c r="E10" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="50"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64" t="s">
+        <v>18</v>
+      </c>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="61" t="s">
+    <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="109" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="111"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="103" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="107" t="s">
-        <v>143</v>
+      <c r="D16" s="108" t="s">
+        <v>141</v>
       </c>
       <c r="E16" s="108"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="111" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="111"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="101" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D17" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="110"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="100" t="s">
+      <c r="E17" s="107"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="111" t="s">
+      <c r="D18" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="111"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="101" t="s">
+      <c r="E18" s="108"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D19" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="110"/>
-    </row>
-    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="102" t="s">
+      <c r="E19" s="107"/>
+    </row>
+    <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="109" t="s">
+      <c r="D20" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="109"/>
+      <c r="E20" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3684,32 +3648,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
-  <dimension ref="B2:L29"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="C17" sqref="C17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -3722,7 +3686,7 @@
       <c r="K4" s="37"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29"/>
       <c r="C5" s="38" t="s">
         <v>21</v>
@@ -3737,7 +3701,7 @@
       <c r="K5" s="40"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29"/>
       <c r="C6" s="41" t="s">
         <v>22</v>
@@ -3768,7 +3732,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="43" t="s">
         <v>31</v>
@@ -3799,7 +3763,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29"/>
       <c r="C8" s="45" t="s">
         <v>67</v>
@@ -3814,7 +3778,7 @@
       <c r="K8" s="46"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="47" t="s">
         <v>61</v>
@@ -3837,270 +3801,219 @@
       <c r="K9" s="48"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
-      <c r="C10" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="C10" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="48"/>
+      <c r="I10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
-      <c r="C11" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="C11" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="46"/>
+      <c r="H12" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="34"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="29"/>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="D13" s="52"/>
+      <c r="E13" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="48"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
       <c r="L13" s="34"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="34"/>
-    </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="19" spans="3:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="106" t="s">
+    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-    </row>
-    <row r="20" spans="3:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="24" t="s">
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+    </row>
+    <row r="18" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="113" t="s">
+      <c r="D18" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="114"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="104" t="s">
+      <c r="E18" s="114"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D19" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="J21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="117"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="115"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="116"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="101" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D22" s="115" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E22" s="115"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="100" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D23" s="116" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E23" s="116"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="101" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D24" s="115" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E24" s="115"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="100" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D25" s="116" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E25" s="116"/>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="101" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D26" s="115" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E26" s="115"/>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="116" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="116"/>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="115" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="115"/>
-    </row>
-    <row r="29" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="102" t="s">
+    <row r="27" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="112" t="s">
+      <c r="D27" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="112"/>
+      <c r="E27" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4109,33 +4022,33 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
@@ -4144,7 +4057,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -4155,7 +4068,7 @@
       <c r="G5" s="56"/>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
         <v>24</v>
@@ -4174,7 +4087,7 @@
       </c>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
         <v>45</v>
@@ -4193,7 +4106,7 @@
       </c>
       <c r="H7" s="34"/>
     </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29"/>
       <c r="C8" s="70" t="s">
         <v>52</v>
@@ -4208,7 +4121,7 @@
       </c>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
         <f>FI_Process!E9</f>
@@ -4228,51 +4141,34 @@
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="29"/>
-      <c r="C10" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="73">
-        <v>25</v>
+      <c r="C10" s="74" t="str">
+        <f>FI_Process!E10</f>
+        <v>MIN_NAT_GAS</v>
+      </c>
+      <c r="D10" s="75" t="str">
+        <f>FI_Process!F10</f>
+        <v>Supply Natural Gas</v>
+      </c>
+      <c r="E10" s="75" t="str">
+        <f>FI_Comm!E9</f>
+        <v>NAT_GAS</v>
+      </c>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76">
+        <v>20</v>
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="74" t="str">
-        <f>FI_Process!E11</f>
-        <v>MIN_NAT_GAS</v>
-      </c>
-      <c r="D11" s="75" t="str">
-        <f>FI_Process!F11</f>
-        <v>Supply Natural Gas</v>
-      </c>
-      <c r="E11" s="75" t="str">
-        <f>FI_Comm!E10</f>
-        <v>NAT_GAS</v>
-      </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76">
-        <v>20</v>
-      </c>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
+    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -4283,32 +4179,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
-  <dimension ref="B2:P23"/>
+  <dimension ref="B2:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" customWidth="1"/>
-    <col min="15" max="16" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" customWidth="1"/>
+    <col min="15" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>118</v>
       </c>
@@ -4316,10 +4212,10 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
@@ -4333,7 +4229,7 @@
       <c r="L4" s="37"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -4349,7 +4245,7 @@
       <c r="L5" s="56"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
         <v>24</v>
@@ -4386,7 +4282,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
         <v>45</v>
@@ -4426,7 +4322,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29"/>
       <c r="C8" s="80" t="s">
         <v>52</v>
@@ -4460,14 +4356,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
-        <f>FI_Process!E13</f>
+        <f>FI_Process!E12</f>
         <v>EX_PP_OIL</v>
       </c>
       <c r="D9" s="11" t="str">
-        <f>FI_Process!F13</f>
+        <f>FI_Process!F12</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -4475,7 +4371,7 @@
         <v>FUEL_OIL</v>
       </c>
       <c r="F9" s="11" t="str">
-        <f>FI_Comm!E11</f>
+        <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
       <c r="G9" s="11">
@@ -4506,131 +4402,97 @@
         <v>252.28800000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="29"/>
-      <c r="C10" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="C10" s="74" t="str">
+        <f>FI_Process!E13</f>
+        <v>EX_PP_NAT_GAS</v>
+      </c>
+      <c r="D10" s="75" t="str">
+        <f>FI_Process!F13</f>
+        <v>Power Plant - Natural Gas</v>
+      </c>
+      <c r="E10" s="75" t="str">
+        <f>FI_Comm!E9</f>
+        <v>NAT_GAS</v>
+      </c>
+      <c r="F10" s="75" t="str">
+        <f>FI_Comm!E10</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="G10" s="75">
+        <v>2</v>
+      </c>
+      <c r="H10" s="75">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="I10" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="75">
         <v>1</v>
       </c>
-      <c r="L10" s="73">
+      <c r="L10" s="76">
         <v>1</v>
       </c>
       <c r="M10" s="34"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-    </row>
-    <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="74" t="str">
-        <f>FI_Process!E15</f>
-        <v>EX_PP_NAT_GAS</v>
-      </c>
-      <c r="D11" s="75" t="str">
-        <f>FI_Process!F15</f>
-        <v>Power Plant - Natural Gas</v>
-      </c>
-      <c r="E11" s="75" t="str">
-        <f>FI_Comm!E10</f>
-        <v>NAT_GAS</v>
-      </c>
-      <c r="F11" s="75" t="str">
-        <f>FI_Comm!E11</f>
-        <v>ELC_HV</v>
-      </c>
-      <c r="G11" s="75">
-        <v>2</v>
-      </c>
-      <c r="H11" s="75">
+      <c r="O10" s="98">
+        <f>G10*H10*J10</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="I11" s="75">
-        <v>0.6</v>
-      </c>
-      <c r="J11" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="75">
-        <v>1</v>
-      </c>
-      <c r="L11" s="76">
-        <v>1</v>
-      </c>
-      <c r="M11" s="34"/>
-      <c r="O11" s="98">
-        <f>G11*H11*J11</f>
-        <v>31.536000000000001</v>
-      </c>
-      <c r="P11" s="98">
-        <f>O11/I11</f>
+      <c r="P10" s="98">
+        <f>O10/I10</f>
         <v>52.56</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="O12" s="99">
-        <f>SUM(O9:O11)</f>
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
+      <c r="O11" s="99">
+        <f>SUM(O9:O10)</f>
         <v>132.45120000000003</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4642,37 +4504,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
       <c r="E4" s="79"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29"/>
       <c r="C5" s="90" t="s">
         <v>43</v>
@@ -4681,7 +4543,7 @@
       <c r="E5" s="91"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29"/>
       <c r="C6" s="88" t="s">
         <v>2</v>
@@ -4694,7 +4556,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="92" t="s">
         <v>121</v>
@@ -4707,7 +4569,7 @@
       </c>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29"/>
       <c r="C8" s="95" t="s">
         <v>52</v>
@@ -4718,10 +4580,10 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="29"/>
       <c r="C9" s="82" t="str">
-        <f>FI_Comm!E11</f>
+        <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -4732,7 +4594,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -4745,26 +4607,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4959,26 +4801,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4995,4 +4838,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Maciek\Uczelnia\praca\przedmioty\Integrated Energy Resource Planning\2025_2026\winter\ELAND_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\NB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D1B0D5-4329-446D-B495-DE0BE30CF656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8A977E-0D1D-4FD8-B915-390DEEE22222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
     <sheet name="Introduction" sheetId="11" r:id="rId2"/>
     <sheet name="RES View" sheetId="12" r:id="rId3"/>
     <sheet name="FI_Comm" sheetId="1" r:id="rId4"/>
-    <sheet name="FI_Process" sheetId="2" r:id="rId5"/>
-    <sheet name="Supply" sheetId="3" r:id="rId6"/>
+    <sheet name="Supply" sheetId="3" r:id="rId5"/>
+    <sheet name="FI_Process" sheetId="2" r:id="rId6"/>
     <sheet name="Power Plants" sheetId="8" r:id="rId7"/>
     <sheet name="Demand" sheetId="9" r:id="rId8"/>
   </sheets>
@@ -26,17 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -244,6 +233,50 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{DC8F15DD-018B-4855-85AF-04500F13F7B0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">With this symbol </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>\I:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this column is ignored from VEDA.
+It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
@@ -434,50 +467,6 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Maurizio Gargiulo</author>
-  </authors>
-  <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{DC8F15DD-018B-4855-85AF-04500F13F7B0}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">With this symbol </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>\I:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>, this column is ignored from VEDA.
-It is just useful for your information</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -523,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="181">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1005,9 +994,6 @@
     <t>STG</t>
   </si>
   <si>
-    <t>Genric Process/Technology</t>
-  </si>
-  <si>
     <t>Demand Device</t>
   </si>
   <si>
@@ -1033,6 +1019,42 @@
   </si>
   <si>
     <t>Set</t>
+  </si>
+  <si>
+    <t>IMP_BIOMASS</t>
+  </si>
+  <si>
+    <t>Import of Biomass</t>
+  </si>
+  <si>
+    <t>FUEL_BIOMASS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>EX_PP_BIOMASS</t>
+  </si>
+  <si>
+    <t>Power Plant - Biomass</t>
+  </si>
+  <si>
+    <t>Power Plant - Fuel FUEL_BIOMASS</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Generic Process/Technology</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>ELC_LV</t>
+  </si>
+  <si>
+    <t>Low Voltage Electricity</t>
   </si>
 </sst>
 </file>
@@ -1913,6 +1935,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1921,15 +1952,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2068,7 +2090,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1989584" cy="350352"/>
@@ -2279,7 +2301,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3601692" cy="350352"/>
@@ -3073,21 +3095,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
@@ -3102,10 +3124,10 @@
       <c r="L2" s="105"/>
       <c r="M2" s="105"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -3113,7 +3135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -3148,7 +3170,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>1</v>
       </c>
@@ -3174,7 +3196,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>84</v>
       </c>
@@ -3182,7 +3204,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>86</v>
       </c>
@@ -3214,7 +3236,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -3222,7 +3244,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>89</v>
       </c>
@@ -3254,7 +3276,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>95</v>
       </c>
@@ -3277,7 +3299,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>98</v>
       </c>
@@ -3309,7 +3331,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>102</v>
       </c>
@@ -3330,9 +3352,9 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>135</v>
       </c>
@@ -3347,11 +3369,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495D73C4-1CB8-4502-8C15-49A7C0384D59}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3360,29 +3382,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L20"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3395,8 +3417,8 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -3409,7 +3431,7 @@
       <c r="K4" s="36"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54" t="s">
         <v>1</v>
@@ -3424,7 +3446,7 @@
       <c r="K5" s="56"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="57" t="s">
         <v>137</v>
@@ -3455,7 +3477,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="59" t="s">
         <v>9</v>
@@ -3486,7 +3508,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="47" t="s">
         <v>15</v>
@@ -3509,137 +3531,183 @@
       <c r="K8" s="48"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
-      <c r="C10" s="61" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F11" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63" t="s">
+      <c r="H11" s="23"/>
+      <c r="I11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64" t="s">
+      <c r="J11" s="23"/>
+      <c r="K11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="109" t="s">
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="103" t="s">
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D17" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="111"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="100" t="s">
+      <c r="E17" s="108"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D18" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="108"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="101" t="s">
+      <c r="E18" s="111"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D19" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="107"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="100" t="s">
+      <c r="E19" s="110"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D20" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="108"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="101" t="s">
+      <c r="E20" s="111"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D21" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="107"/>
-    </row>
-    <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="102" t="s">
+      <c r="E21" s="110"/>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D22" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="106"/>
+      <c r="E22" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3647,33 +3715,207 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
-  <dimension ref="B2:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="29"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+      <c r="C6" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="72" t="str">
+        <f>FI_Process!E9</f>
+        <v>IMP_OIL</v>
+      </c>
+      <c r="D9" s="11" t="str">
+        <f>FI_Process!F9</f>
+        <v>Import of Fuel Oil</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f>FI_Comm!E8</f>
+        <v>FUEL_OIL</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="73">
+        <v>30</v>
+      </c>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="73">
+        <v>25</v>
+      </c>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="74" t="str">
+        <f>FI_Process!E11</f>
+        <v>MIN_NAT_GAS</v>
+      </c>
+      <c r="D11" s="75" t="str">
+        <f>FI_Process!F11</f>
+        <v>Supply Natural Gas</v>
+      </c>
+      <c r="E11" s="75" t="str">
+        <f>FI_Comm!E11</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76">
+        <v>20</v>
+      </c>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
+  <dimension ref="B2:L30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -3686,7 +3928,7 @@
       <c r="K4" s="37"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="38" t="s">
         <v>21</v>
@@ -3701,7 +3943,7 @@
       <c r="K5" s="40"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="41" t="s">
         <v>22</v>
@@ -3732,7 +3974,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="43" t="s">
         <v>31</v>
@@ -3763,7 +4005,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="45" t="s">
         <v>67</v>
@@ -3778,7 +4020,7 @@
       <c r="K8" s="46"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="47" t="s">
         <v>61</v>
@@ -3801,377 +4043,289 @@
       <c r="K9" s="48"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="45" t="s">
+      <c r="J11" s="23"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="47" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="29"/>
-      <c r="C13" s="51" t="s">
+      <c r="J13" s="21"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F15" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G15" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H15" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="109" t="s">
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="20" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+    </row>
+    <row r="21" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-    </row>
-    <row r="18" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="113" t="s">
+      <c r="D21" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="114"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="104" t="s">
+      <c r="E21" s="114"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="117" t="s">
+      <c r="D22" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="117"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="115"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="116" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="116"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="115"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="116"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="117"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="115" t="s">
+      <c r="E27" s="115"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="116"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="115"/>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="115"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="116" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="116"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="101" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="115" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="115"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="116" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="116"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="115" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="115"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="116" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="116"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="115" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="115"/>
-    </row>
-    <row r="27" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="102" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="112"/>
+      <c r="E30" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
-  <dimension ref="B2:H11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="2:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
-        <f>FI_Process!E9</f>
-        <v>IMP_OIL</v>
-      </c>
-      <c r="D9" s="11" t="str">
-        <f>FI_Process!F9</f>
-        <v>Import of Fuel Oil</v>
-      </c>
-      <c r="E9" s="11" t="str">
-        <f>FI_Comm!E8</f>
-        <v>FUEL_OIL</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="73">
-        <v>30</v>
-      </c>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
-        <f>FI_Process!E10</f>
-        <v>MIN_NAT_GAS</v>
-      </c>
-      <c r="D10" s="75" t="str">
-        <f>FI_Process!F10</f>
-        <v>Supply Natural Gas</v>
-      </c>
-      <c r="E10" s="75" t="str">
-        <f>FI_Comm!E9</f>
-        <v>NAT_GAS</v>
-      </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76">
-        <v>20</v>
-      </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -4179,32 +4333,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
-  <dimension ref="B2:P22"/>
+  <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" customWidth="1"/>
-    <col min="15" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="15" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>118</v>
       </c>
@@ -4212,10 +4366,10 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
@@ -4229,7 +4383,7 @@
       <c r="L4" s="37"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -4245,7 +4399,7 @@
       <c r="L5" s="56"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
         <v>24</v>
@@ -4282,7 +4436,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
         <v>45</v>
@@ -4322,7 +4476,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="80" t="s">
         <v>52</v>
@@ -4356,14 +4510,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
-        <f>FI_Process!E12</f>
+        <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
       <c r="D9" s="11" t="str">
-        <f>FI_Process!F12</f>
+        <f>FI_Process!F13</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -4371,8 +4525,8 @@
         <v>FUEL_OIL</v>
       </c>
       <c r="F9" s="11" t="str">
-        <f>FI_Comm!E10</f>
-        <v>ELC_HV</v>
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
       </c>
       <c r="G9" s="11">
         <v>4</v>
@@ -4402,97 +4556,138 @@
         <v>252.28800000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
-        <f>FI_Process!E13</f>
+      <c r="C10" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3</v>
+      </c>
+      <c r="H10" s="11">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10" s="73">
+        <v>1</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="O10" s="85">
+        <f>G10*H10*J10</f>
+        <v>66.2256</v>
+      </c>
+      <c r="P10" s="85">
+        <f>O10/I10</f>
+        <v>220.75200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="74" t="str">
+        <f>FI_Process!E15</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="75" t="str">
-        <f>FI_Process!F13</f>
+      <c r="D11" s="75" t="str">
+        <f>FI_Process!F15</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="75" t="str">
-        <f>FI_Comm!E9</f>
-        <v>NAT_GAS</v>
-      </c>
-      <c r="F10" s="75" t="str">
-        <f>FI_Comm!E10</f>
+      <c r="E11" s="75" t="str">
+        <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="75">
+      <c r="F11" s="75" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="G11" s="75">
         <v>2</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H11" s="75">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I11" s="75">
         <v>0.6</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J11" s="75">
         <v>0.5</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K11" s="75">
         <v>1</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L11" s="76">
         <v>1</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="O10" s="98">
-        <f>G10*H10*J10</f>
+      <c r="M11" s="34"/>
+      <c r="O11" s="98">
+        <f>G11*H11*J11</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P10" s="98">
-        <f>O10/I10</f>
+      <c r="P11" s="98">
+        <f>O11/I11</f>
         <v>52.56</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="O11" s="99">
-        <f>SUM(O9:O10)</f>
-        <v>132.45120000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C16" s="9" t="s">
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="O12" s="99">
+        <f>SUM(O9:O11)</f>
+        <v>198.67680000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4504,37 +4699,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
       <c r="E4" s="79"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="90" t="s">
         <v>43</v>
@@ -4543,7 +4738,7 @@
       <c r="E5" s="91"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="88" t="s">
         <v>2</v>
@@ -4556,7 +4751,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="2:6" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="92" t="s">
         <v>121</v>
@@ -4569,7 +4764,7 @@
       </c>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="95" t="s">
         <v>52</v>
@@ -4580,21 +4775,22 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="82" t="str">
-        <f>FI_Comm!E10</f>
-        <v>ELC_HV</v>
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>123</v>
       </c>
       <c r="E9" s="83">
-        <v>100</v>
+        <f>100/0.9</f>
+        <v>111.11111111111111</v>
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -4607,6 +4803,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4801,27 +5017,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4838,23 +5053,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\NB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\Przedmioty\Integrated Energy Resource Planning\ELAND_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8A977E-0D1D-4FD8-B915-390DEEE22222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68786D10-0D8E-4297-9CFB-F87FC250B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
     <sheet name="Introduction" sheetId="11" r:id="rId2"/>
     <sheet name="RES View" sheetId="12" r:id="rId3"/>
     <sheet name="FI_Comm" sheetId="1" r:id="rId4"/>
-    <sheet name="Supply" sheetId="3" r:id="rId5"/>
-    <sheet name="FI_Process" sheetId="2" r:id="rId6"/>
+    <sheet name="FI_Process" sheetId="2" r:id="rId5"/>
+    <sheet name="Supply" sheetId="3" r:id="rId6"/>
     <sheet name="Power Plants" sheetId="8" r:id="rId7"/>
-    <sheet name="Demand" sheetId="9" r:id="rId8"/>
+    <sheet name="GRID" sheetId="13" r:id="rId8"/>
+    <sheet name="Demand" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -233,50 +245,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
-  </authors>
-  <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{DC8F15DD-018B-4855-85AF-04500F13F7B0}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">With this symbol </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>\I:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>, this column is ignored from VEDA.
-It is just useful for your information</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
@@ -467,6 +435,50 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{DC8F15DD-018B-4855-85AF-04500F13F7B0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">With this symbol </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>\I:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this column is ignored from VEDA.
+It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -511,8 +523,96 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{9E78AFC4-2BAE-403F-95E2-523753FAAFF4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">With this symbol </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>\I:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this column is ignored from VEDA.
+It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{A71BDD28-0CE9-4974-B2FE-EBDD5AD48B4E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">With this symbol </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>\I:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this column is ignored from VEDA.
+It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="186">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -571,12 +671,6 @@
     <t>ELC</t>
   </si>
   <si>
-    <t>SEASON</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
     <t>~FI_Process</t>
   </si>
   <si>
@@ -994,6 +1088,9 @@
     <t>STG</t>
   </si>
   <si>
+    <t>Genric Process/Technology</t>
+  </si>
+  <si>
     <t>Demand Device</t>
   </si>
   <si>
@@ -1021,40 +1118,58 @@
     <t>Set</t>
   </si>
   <si>
-    <t>IMP_BIOMASS</t>
-  </si>
-  <si>
-    <t>Import of Biomass</t>
-  </si>
-  <si>
-    <t>FUEL_BIOMASS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>EX_PP_BIOMASS</t>
-  </si>
-  <si>
-    <t>Power Plant - Biomass</t>
-  </si>
-  <si>
-    <t>Power Plant - Fuel FUEL_BIOMASS</t>
+    <t>ELC_LV</t>
+  </si>
+  <si>
+    <t>ELC_FIN</t>
+  </si>
+  <si>
+    <t>Low Voltage</t>
+  </si>
+  <si>
+    <t>Final demand</t>
+  </si>
+  <si>
+    <t>EX_PP_WIND</t>
+  </si>
+  <si>
+    <t>Power Plant - Wind Tuebine</t>
+  </si>
+  <si>
+    <t>MIN_WIND_ON</t>
+  </si>
+  <si>
+    <t>Supply Wind Onshore</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>\I:</t>
+  </si>
+  <si>
+    <t>Demand process</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>DMD_FIN_ELC</t>
+  </si>
+  <si>
+    <t>Final electricity demand</t>
   </si>
   <si>
     <t>PRE</t>
   </si>
   <si>
-    <t>Generic Process/Technology</t>
-  </si>
-  <si>
-    <t>GRID</t>
-  </si>
-  <si>
-    <t>ELC_LV</t>
-  </si>
-  <si>
-    <t>Low Voltage Electricity</t>
+    <t>EX_ELC_GRID</t>
+  </si>
+  <si>
+    <t>Existing Grid</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1324,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1258,8 +1373,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1739,6 +1860,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1746,7 +1878,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1877,9 +2009,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1971,12 +2101,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
     <cellStyle name="Normal 39 2 2" xfId="3" xr:uid="{3239FB62-2CA0-4815-BEFB-A7203B672581}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{137A5599-82BA-4049-805F-5468140AB07A}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3111,63 +3249,63 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="105" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
+        <v>92</v>
+      </c>
+      <c r="F2" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -3175,165 +3313,165 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L6" s="7">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" s="8">
         <v>1000</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L9" s="8">
         <v>1000000</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I12" s="8">
         <v>1000</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L12" s="8">
         <v>1000000</v>
       </c>
       <c r="M12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14">
         <v>1000</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3356,7 +3494,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +3507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495D73C4-1CB8-4502-8C15-49A7C0384D59}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
@@ -3382,10 +3520,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L22"/>
+  <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,7 +3532,7 @@
     <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
@@ -3449,10 +3587,10 @@
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>2</v>
@@ -3483,7 +3621,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>10</v>
@@ -3504,7 +3642,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L7" s="34"/>
     </row>
@@ -3515,43 +3653,39 @@
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="48"/>
       <c r="L8" s="34"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="48"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="50"/>
       <c r="L9" s="34"/>
     </row>
     <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3561,153 +3695,168 @@
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="50"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="50" t="s">
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="34"/>
     </row>
     <row r="12" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="29"/>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="17" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="16" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="103" t="s">
+      <c r="D18" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="106"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="109"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="E20" s="108"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="108"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="111" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="111"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="110" t="s">
+      <c r="E21" s="109"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="110"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="111" t="s">
+      <c r="D22" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="108"/>
+    </row>
+    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="111"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="110"/>
-    </row>
-    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="102" t="s">
+      <c r="D23" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="109"/>
+      <c r="E23" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3715,11 +3864,503 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
+  <dimension ref="B2:L33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="29"/>
+      <c r="C5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+      <c r="C6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+      <c r="C17" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+      <c r="C19" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="23" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+    </row>
+    <row r="24" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="112"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="102" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="115"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="113"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="114"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="113"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="114"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="113"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="114"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="113"/>
+    </row>
+    <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="110"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D25:E25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,7 +4377,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -3744,9 +4385,9 @@
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="33"/>
@@ -3756,7 +4397,7 @@
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
       <c r="E5" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="56"/>
@@ -3765,53 +4406,53 @@
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="34"/>
     </row>
     <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7" s="34"/>
     </row>
     <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="70" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H8" s="34"/>
     </row>
@@ -3837,38 +4478,41 @@
     </row>
     <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="73">
-        <v>25</v>
+      <c r="C10" s="116" t="str">
+        <f>FI_Process!E10</f>
+        <v>MIN_NAT_GAS</v>
+      </c>
+      <c r="D10" s="117" t="str">
+        <f>FI_Process!F10</f>
+        <v>Supply Natural Gas</v>
+      </c>
+      <c r="E10" s="117" t="str">
+        <f>FI_Comm!E9</f>
+        <v>NAT_GAS</v>
+      </c>
+      <c r="F10" s="117"/>
+      <c r="G10" s="118">
+        <v>20</v>
       </c>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
-      <c r="C11" s="74" t="str">
+      <c r="C11" s="119" t="str">
         <f>FI_Process!E11</f>
-        <v>MIN_NAT_GAS</v>
-      </c>
-      <c r="D11" s="75" t="str">
+        <v>MIN_WIND_ON</v>
+      </c>
+      <c r="D11" s="120" t="str">
         <f>FI_Process!F11</f>
-        <v>Supply Natural Gas</v>
-      </c>
-      <c r="E11" s="75" t="str">
-        <f>FI_Comm!E11</f>
-        <v>ELC_HV</v>
-      </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76">
-        <v>20</v>
+        <v>Supply Wind Onshore</v>
+      </c>
+      <c r="E11" s="120" t="str">
+        <f>FI_Comm!E10</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="F11" s="120"/>
+      <c r="G11" s="121">
+        <v>1E-3</v>
       </c>
       <c r="H11" s="34"/>
     </row>
@@ -3883,449 +4527,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
-  <dimension ref="B2:L30"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="34"/>
-    </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="34"/>
-    </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="34"/>
-    </row>
-    <row r="17" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="20" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="106" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-    </row>
-    <row r="21" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="114"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="104" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="117"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="115"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="116" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="116"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="101" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="115" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="115"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="116" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="116"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="115" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="115"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="116" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="116"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="115" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="115"/>
-    </row>
-    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="102" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="112" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" s="112"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -4335,8 +4536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4360,7 +4561,7 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -4371,10 +4572,10 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
@@ -4389,7 +4590,7 @@
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="F5" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
@@ -4402,112 +4603,112 @@
     <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="L6" s="67" t="s">
         <v>109</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L6" s="67" t="s">
-        <v>111</v>
       </c>
       <c r="M6" s="34"/>
       <c r="O6" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="L7" s="69" t="s">
         <v>115</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="69" t="s">
-        <v>117</v>
       </c>
       <c r="M7" s="34"/>
       <c r="O7" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
-      <c r="C8" s="80" t="s">
-        <v>52</v>
+      <c r="C8" s="78" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="81" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="L8" s="79" t="s">
+        <v>75</v>
       </c>
       <c r="M8" s="34"/>
-      <c r="O8" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="P8" s="86" t="s">
-        <v>132</v>
+      <c r="O8" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="84" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4525,8 +4726,8 @@
         <v>FUEL_OIL</v>
       </c>
       <c r="F9" s="11" t="str">
-        <f>FI_Comm!E12</f>
-        <v>ELC_LV</v>
+        <f>FI_Comm!E11</f>
+        <v>ELC_HV</v>
       </c>
       <c r="G9" s="11">
         <v>4</v>
@@ -4547,101 +4748,98 @@
         <v>1</v>
       </c>
       <c r="M9" s="34"/>
-      <c r="O9" s="85">
+      <c r="O9" s="83">
         <f>G9*H9*J9</f>
         <v>100.91520000000001</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="83">
         <f>O9/I9</f>
         <v>252.28800000000001</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="str">
-        <f>FI_Comm!E12</f>
-        <v>ELC_LV</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="C10" s="116" t="str">
+        <f>FI_Process!E14</f>
+        <v>EX_PP_NAT_GAS</v>
+      </c>
+      <c r="D10" s="117" t="str">
+        <f>FI_Process!F14</f>
+        <v>Power Plant - Natural Gas</v>
+      </c>
+      <c r="E10" s="117" t="str">
+        <f>FI_Comm!E9</f>
+        <v>NAT_GAS</v>
+      </c>
+      <c r="F10" s="117" t="str">
+        <f>FI_Comm!E11</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="G10" s="117">
+        <v>2</v>
+      </c>
+      <c r="H10" s="117">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="I10" s="117">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="117">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="117">
         <v>1</v>
       </c>
-      <c r="L10" s="73">
+      <c r="L10" s="118">
         <v>1</v>
       </c>
       <c r="M10" s="34"/>
-      <c r="O10" s="85">
+      <c r="O10" s="96">
         <f>G10*H10*J10</f>
-        <v>66.2256</v>
-      </c>
-      <c r="P10" s="85">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="P10" s="96">
         <f>O10/I10</f>
-        <v>220.75200000000001</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
-      <c r="C11" s="74" t="str">
+      <c r="C11" s="119" t="str">
         <f>FI_Process!E15</f>
-        <v>EX_PP_NAT_GAS</v>
-      </c>
-      <c r="D11" s="75" t="str">
+        <v>EX_PP_WIND</v>
+      </c>
+      <c r="D11" s="120" t="str">
         <f>FI_Process!F15</f>
-        <v>Power Plant - Natural Gas</v>
-      </c>
-      <c r="E11" s="75" t="str">
+        <v>Power Plant - Wind Tuebine</v>
+      </c>
+      <c r="E11" s="120" t="str">
+        <f>FI_Comm!E10</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="F11" s="120" t="str">
         <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="F11" s="75" t="str">
-        <f>FI_Comm!E12</f>
-        <v>ELC_LV</v>
-      </c>
-      <c r="G11" s="75">
-        <v>2</v>
-      </c>
-      <c r="H11" s="75">
+      <c r="G11" s="120">
+        <v>1</v>
+      </c>
+      <c r="H11" s="120">
         <v>31.536000000000001</v>
       </c>
-      <c r="I11" s="75">
-        <v>0.6</v>
-      </c>
-      <c r="J11" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="75">
+      <c r="I11" s="120">
         <v>1</v>
       </c>
-      <c r="L11" s="76">
+      <c r="J11" s="120">
+        <v>0.33</v>
+      </c>
+      <c r="K11" s="120"/>
+      <c r="L11" s="121">
         <v>1</v>
       </c>
       <c r="M11" s="34"/>
-      <c r="O11" s="98">
-        <f>G11*H11*J11</f>
-        <v>31.536000000000001</v>
-      </c>
-      <c r="P11" s="98">
-        <f>O11/I11</f>
-        <v>52.56</v>
-      </c>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
@@ -4656,35 +4854,35 @@
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
       <c r="M12" s="32"/>
-      <c r="O12" s="99">
-        <f>SUM(O9:O11)</f>
-        <v>198.67680000000001</v>
+      <c r="O12" s="97">
+        <f>SUM(O9:O10)</f>
+        <v>132.45120000000003</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4696,11 +4894,162 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
-  <dimension ref="B1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF049C56-8571-476E-80B4-2A2AA175E0B0}">
+  <dimension ref="B1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>FI_Process!E17</f>
+        <v>EX_ELC_GRID</v>
+      </c>
+      <c r="C6" t="str">
+        <f>FI_Process!F17</f>
+        <v>Existing Grid</v>
+      </c>
+      <c r="D6" t="str">
+        <f>FI_Comm!E11</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="E6" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
+  <dimension ref="B1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4708,97 +5057,237 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
-      <c r="C5" s="90" t="s">
-        <v>43</v>
+      <c r="C5" s="88" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="55"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="84"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="89"/>
+      <c r="F5" s="82"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="85">
+        <v>2025</v>
+      </c>
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="87">
-        <v>2025</v>
-      </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="92" t="s">
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29"/>
+      <c r="C9" s="80" t="str">
+        <f>FI_Comm!E13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="82" t="str">
-        <f>FI_Comm!E12</f>
-        <v>ELC_LV</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="83">
-        <f>100/0.9</f>
-        <v>111.11111111111111</v>
+      <c r="E9" s="81">
+        <f>100/GRID!H6</f>
+        <v>113.63636363636364</v>
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
       <c r="F10" s="32"/>
     </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="123" t="str">
+        <f>FI_Process!E19</f>
+        <v>DMD_FIN_ELC</v>
+      </c>
+      <c r="D17" s="123" t="str">
+        <f>FI_Process!F19</f>
+        <v>Final electricity demand</v>
+      </c>
+      <c r="E17" s="123" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="F17" s="123" t="str">
+        <f>FI_Comm!E13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123">
+        <v>1</v>
+      </c>
+      <c r="I17" s="123">
+        <v>1</v>
+      </c>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\Przedmioty\Integrated Energy Resource Planning\ELAND_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\NB\04.11.25\ELAND-main\ELAND-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68786D10-0D8E-4297-9CFB-F87FC250B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E0D05C-504B-4FEF-9680-4DA6F80556E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -27,17 +27,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -612,7 +601,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="188">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1170,6 +1159,12 @@
   </si>
   <si>
     <t>Existing Grid</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1873,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2062,6 +2057,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2101,20 +2103,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
     <cellStyle name="Normal 39 2 2" xfId="3" xr:uid="{3239FB62-2CA0-4815-BEFB-A7203B672581}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{137A5599-82BA-4049-805F-5468140AB07A}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3251,16 +3245,16 @@
       <c r="B2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
@@ -3523,7 +3517,7 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3661,7 +3655,9 @@
       <c r="G8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="48"/>
@@ -3682,7 +3678,10 @@
       <c r="G9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="23" t="str">
+        <f>H8</f>
+        <v>SEASON</v>
+      </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="50"/>
@@ -3703,7 +3702,10 @@
       <c r="G10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="23" t="str">
+        <f>H9</f>
+        <v>SEASON</v>
+      </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="50"/>
@@ -3724,7 +3726,9 @@
       <c r="G11" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="63"/>
+      <c r="H11" s="63" t="s">
+        <v>187</v>
+      </c>
       <c r="I11" s="63"/>
       <c r="J11" s="63"/>
       <c r="K11" s="64" t="s">
@@ -3747,7 +3751,10 @@
       <c r="G12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13" t="str">
+        <f>H11</f>
+        <v>DAYNITE</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -3768,7 +3775,10 @@
       <c r="G13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13" t="str">
+        <f>H12</f>
+        <v>DAYNITE</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -3788,65 +3798,65 @@
       <c r="L14" s="32"/>
     </row>
     <row r="17" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="106"/>
+      <c r="E18" s="113"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="109"/>
+      <c r="E19" s="116"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="108"/>
+      <c r="E20" s="115"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="109" t="s">
+      <c r="D21" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="109"/>
+      <c r="E21" s="116"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="108"/>
+      <c r="E22" s="115"/>
     </row>
     <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="107"/>
+      <c r="E23" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3867,8 +3877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4013,7 +4023,9 @@
       <c r="H9" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="J9" s="21"/>
       <c r="K9" s="48"/>
       <c r="L9" s="34"/>
@@ -4036,7 +4048,10 @@
       <c r="H10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="23" t="str">
+        <f>I9</f>
+        <v>SEASON</v>
+      </c>
       <c r="J10" s="23"/>
       <c r="K10" s="50"/>
       <c r="L10" s="34"/>
@@ -4059,7 +4074,10 @@
       <c r="H11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="23" t="str">
+        <f>I10</f>
+        <v>SEASON</v>
+      </c>
       <c r="J11" s="23"/>
       <c r="K11" s="50"/>
       <c r="L11" s="34"/>
@@ -4097,7 +4115,9 @@
       <c r="H13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="J13" s="21"/>
       <c r="K13" s="48"/>
       <c r="L13" s="34"/>
@@ -4120,7 +4140,10 @@
       <c r="H14" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="52"/>
+      <c r="I14" s="52" t="str">
+        <f>I13</f>
+        <v>DAYNITE</v>
+      </c>
       <c r="J14" s="52"/>
       <c r="K14" s="53"/>
       <c r="L14" s="34"/>
@@ -4143,7 +4166,10 @@
       <c r="H15" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="74" t="str">
+        <f>I14</f>
+        <v>DAYNITE</v>
+      </c>
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
       <c r="L15" s="34"/>
@@ -4181,7 +4207,10 @@
       <c r="H17" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="74" t="str">
+        <f>I15</f>
+        <v>DAYNITE</v>
+      </c>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
       <c r="L17" s="34"/>
@@ -4221,7 +4250,10 @@
       <c r="H19" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="74" t="str">
+        <f>I17</f>
+        <v>DAYNITE</v>
+      </c>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
       <c r="L19" s="34"/>
@@ -4240,101 +4272,101 @@
       <c r="L20" s="32"/>
     </row>
     <row r="23" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
     </row>
     <row r="24" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="111" t="s">
+      <c r="D24" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="112"/>
+      <c r="E24" s="119"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C25" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="115"/>
+      <c r="E25" s="122"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C26" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="113"/>
+      <c r="E26" s="120"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C27" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="121" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="114"/>
+      <c r="E27" s="121"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C28" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="113" t="s">
+      <c r="D28" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="113"/>
+      <c r="E28" s="120"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C29" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="114" t="s">
+      <c r="D29" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="114"/>
+      <c r="E29" s="121"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C30" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="113"/>
+      <c r="E30" s="120"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C31" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="114"/>
+      <c r="E31" s="121"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C32" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="D32" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="113"/>
+      <c r="E32" s="120"/>
     </row>
     <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="110"/>
+      <c r="E33" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4478,40 +4510,40 @@
     </row>
     <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="116" t="str">
+      <c r="C10" s="103" t="str">
         <f>FI_Process!E10</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="D10" s="117" t="str">
+      <c r="D10" s="104" t="str">
         <f>FI_Process!F10</f>
         <v>Supply Natural Gas</v>
       </c>
-      <c r="E10" s="117" t="str">
+      <c r="E10" s="104" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="118">
+      <c r="F10" s="104"/>
+      <c r="G10" s="105">
         <v>20</v>
       </c>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
-      <c r="C11" s="119" t="str">
+      <c r="C11" s="106" t="str">
         <f>FI_Process!E11</f>
         <v>MIN_WIND_ON</v>
       </c>
-      <c r="D11" s="120" t="str">
+      <c r="D11" s="107" t="str">
         <f>FI_Process!F11</f>
         <v>Supply Wind Onshore</v>
       </c>
-      <c r="E11" s="120" t="str">
+      <c r="E11" s="107" t="str">
         <f>FI_Comm!E10</f>
         <v>WIND_ON</v>
       </c>
-      <c r="F11" s="120"/>
-      <c r="G11" s="121">
+      <c r="F11" s="107"/>
+      <c r="G11" s="108">
         <v>1E-3</v>
       </c>
       <c r="H11" s="34"/>
@@ -4759,38 +4791,38 @@
     </row>
     <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="116" t="str">
+      <c r="C10" s="103" t="str">
         <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="117" t="str">
+      <c r="D10" s="104" t="str">
         <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="117" t="str">
+      <c r="E10" s="104" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="117" t="str">
+      <c r="F10" s="104" t="str">
         <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="117">
+      <c r="G10" s="104">
         <v>2</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="104">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="117">
+      <c r="I10" s="104">
         <v>0.6</v>
       </c>
-      <c r="J10" s="117">
+      <c r="J10" s="104">
         <v>0.5</v>
       </c>
-      <c r="K10" s="117">
+      <c r="K10" s="104">
         <v>1</v>
       </c>
-      <c r="L10" s="118">
+      <c r="L10" s="105">
         <v>1</v>
       </c>
       <c r="M10" s="34"/>
@@ -4805,41 +4837,41 @@
     </row>
     <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
-      <c r="C11" s="119" t="str">
+      <c r="C11" s="106" t="str">
         <f>FI_Process!E15</f>
         <v>EX_PP_WIND</v>
       </c>
-      <c r="D11" s="120" t="str">
+      <c r="D11" s="107" t="str">
         <f>FI_Process!F15</f>
         <v>Power Plant - Wind Tuebine</v>
       </c>
-      <c r="E11" s="120" t="str">
+      <c r="E11" s="107" t="str">
         <f>FI_Comm!E10</f>
         <v>WIND_ON</v>
       </c>
-      <c r="F11" s="120" t="str">
+      <c r="F11" s="107" t="str">
         <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G11" s="120">
+      <c r="G11" s="107">
         <v>1</v>
       </c>
-      <c r="H11" s="120">
+      <c r="H11" s="107">
         <v>31.536000000000001</v>
       </c>
-      <c r="I11" s="120">
+      <c r="I11" s="107">
         <v>1</v>
       </c>
-      <c r="J11" s="120">
+      <c r="J11" s="107">
         <v>0.33</v>
       </c>
-      <c r="K11" s="120"/>
-      <c r="L11" s="121">
+      <c r="K11" s="107"/>
+      <c r="L11" s="108">
         <v>1</v>
       </c>
       <c r="M11" s="34"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
@@ -4924,7 +4956,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="66" t="s">
         <v>22</v>
       </c>
@@ -4956,7 +4988,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B4" s="68" t="s">
         <v>43</v>
       </c>
@@ -5048,7 +5080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
   <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -5167,7 +5199,7 @@
       <c r="K13" s="55"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="66" t="s">
         <v>22</v>
       </c>
@@ -5199,7 +5231,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="C15" s="68" t="s">
         <v>43</v>
       </c>
@@ -5258,32 +5290,32 @@
       </c>
     </row>
     <row r="17" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="123" t="str">
+      <c r="C17" s="109" t="str">
         <f>FI_Process!E19</f>
         <v>DMD_FIN_ELC</v>
       </c>
-      <c r="D17" s="123" t="str">
+      <c r="D17" s="109" t="str">
         <f>FI_Process!F19</f>
         <v>Final electricity demand</v>
       </c>
-      <c r="E17" s="123" t="str">
+      <c r="E17" s="109" t="str">
         <f>FI_Comm!E12</f>
         <v>ELC_LV</v>
       </c>
-      <c r="F17" s="123" t="str">
+      <c r="F17" s="109" t="str">
         <f>FI_Comm!E13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123">
+      <c r="G17" s="109"/>
+      <c r="H17" s="109">
         <v>1</v>
       </c>
-      <c r="I17" s="123">
+      <c r="I17" s="109">
         <v>1</v>
       </c>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5292,6 +5324,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -5300,15 +5341,6 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5507,20 +5539,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\NB\04.11.25\ELAND-main\ELAND-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E0D05C-504B-4FEF-9680-4DA6F80556E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C8040C-FC77-453C-B22B-916EB19665DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -562,7 +562,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{A71BDD28-0CE9-4974-B2FE-EBDD5AD48B4E}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{A71BDD28-0CE9-4974-B2FE-EBDD5AD48B4E}">
       <text>
         <r>
           <rPr>
@@ -601,7 +601,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="198">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1165,6 +1165,36 @@
   </si>
   <si>
     <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>COM_FR</t>
+  </si>
+  <si>
+    <t>Timeslice</t>
+  </si>
+  <si>
+    <t>S1W1D1</t>
+  </si>
+  <si>
+    <t>S1W1D2</t>
+  </si>
+  <si>
+    <t>S1W2D1</t>
+  </si>
+  <si>
+    <t>S1W2D2</t>
+  </si>
+  <si>
+    <t>S2W1D1</t>
+  </si>
+  <si>
+    <t>S2W1D2</t>
+  </si>
+  <si>
+    <t>S2W2D1</t>
+  </si>
+  <si>
+    <t>S2W2D2</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,6 +1348,26 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF010000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1867,13 +1917,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2103,12 +2160,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="18" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="11">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
+    <cellStyle name="Normal 10 2" xfId="6" xr:uid="{C06890AB-DA8E-4D81-A9C1-1E1B56476F58}"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{44BC5BE4-CEE6-435A-8FEE-0B76656F34ED}"/>
     <cellStyle name="Normal 39 2 2" xfId="3" xr:uid="{3239FB62-2CA0-4815-BEFB-A7203B672581}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{137A5599-82BA-4049-805F-5468140AB07A}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 11" xfId="9" xr:uid="{9FBC0BDC-6F15-426D-BE54-49DF71CF4F00}"/>
+    <cellStyle name="Normalny 12" xfId="8" xr:uid="{3777C553-B55A-488E-8BE8-8DE95217663F}"/>
+    <cellStyle name="Normalny 2" xfId="7" xr:uid="{D36888AA-1FD2-48F7-B999-8B2964B0A013}"/>
+    <cellStyle name="Normalny 2 3" xfId="10" xr:uid="{420A2541-94DD-4B2E-B160-0F5A57314DD6}"/>
+    <cellStyle name="Procentowy" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3517,7 +3584,7 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,8 +3944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5078,10 +5145,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
-  <dimension ref="B1:L17"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5100,23 +5167,23 @@
     <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="75"/>
       <c r="D4" s="76"/>
       <c r="E4" s="77"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="88" t="s">
         <v>41</v>
@@ -5125,7 +5192,7 @@
       <c r="E5" s="89"/>
       <c r="F5" s="82"/>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="86" t="s">
         <v>2</v>
@@ -5133,12 +5200,14 @@
       <c r="D6" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="85">
         <v>2025</v>
       </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="90" t="s">
         <v>119</v>
@@ -5146,23 +5215,22 @@
       <c r="D7" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="F7" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="93" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="94"/>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="94"/>
+      <c r="F8" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="80" t="str">
         <f>FI_Comm!E13</f>
@@ -5171,151 +5239,278 @@
       <c r="D9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="81">
+      <c r="F9" s="81">
         <f>100/GRID!H6</f>
         <v>113.63636363636364</v>
       </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="65" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="13" t="str">
+        <f>C9</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="125" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="80" t="str">
+        <f>C10</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="123">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="13" t="str">
+        <f>C11</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="123">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="13" t="str">
+        <f>C12</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="123">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="13" t="str">
+        <f>C13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="123">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="13" t="str">
+        <f>C14</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="124" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="123">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="13" t="str">
+        <f>C15</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="124" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="123">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+      <c r="C17" s="13" t="str">
+        <f>C16</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="123">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="56"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="66" t="s">
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G22" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I22" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K22" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="67" t="s">
+      <c r="L22" s="67" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="C15" s="68" t="s">
+    <row r="23" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="C23" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G23" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H23" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I23" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J23" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K23" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L23" s="69" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="78" t="s">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H24" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="79" t="s">
+      <c r="L24" s="79" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="109" t="str">
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="109" t="str">
         <f>FI_Process!E19</f>
         <v>DMD_FIN_ELC</v>
       </c>
-      <c r="D17" s="109" t="str">
+      <c r="D25" s="109" t="str">
         <f>FI_Process!F19</f>
         <v>Final electricity demand</v>
       </c>
-      <c r="E17" s="109" t="str">
+      <c r="E25" s="109" t="str">
         <f>FI_Comm!E12</f>
         <v>ELC_LV</v>
       </c>
-      <c r="F17" s="109" t="str">
+      <c r="F25" s="109" t="str">
         <f>FI_Comm!E13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109">
+      <c r="G25" s="109"/>
+      <c r="H25" s="109">
         <v>1</v>
       </c>
-      <c r="I17" s="109">
+      <c r="I25" s="109">
         <v>1</v>
       </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
